--- a/Gumruk.Web/obj/Release/Package/PackageTmp/Files/templateEntity.xlsx
+++ b/Gumruk.Web/obj/Release/Package/PackageTmp/Files/templateEntity.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="630" yWindow="615" windowWidth="26580" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="Columns" sheetId="1" r:id="rId1"/>
+    <sheet name="kolon1" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTypes" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Table</t>
   </si>
@@ -49,9 +50,6 @@
     <t>LinkType</t>
   </si>
   <si>
-    <t>1-N</t>
-  </si>
-  <si>
     <t>Suppliers</t>
   </si>
   <si>
@@ -70,9 +68,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>DanaveliWasHere</t>
-  </si>
-  <si>
     <t>Telephone</t>
   </si>
   <si>
@@ -115,10 +110,67 @@
     <t>Kolon2</t>
   </si>
   <si>
-    <t>Bonzai</t>
-  </si>
-  <si>
     <t>Alan</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DataType</t>
+  </si>
+  <si>
+    <t>1-n</t>
+  </si>
+  <si>
+    <t>Sayısal</t>
+  </si>
+  <si>
+    <t>Karakter</t>
+  </si>
+  <si>
+    <t>Mantıksal</t>
+  </si>
+  <si>
+    <t>Tarih</t>
+  </si>
+  <si>
+    <t>Table Explanation</t>
+  </si>
+  <si>
+    <t>Column Explanation</t>
+  </si>
+  <si>
+    <t>ürünler tablosu</t>
+  </si>
+  <si>
+    <t>katerigolerin listelendiği tablo</t>
+  </si>
+  <si>
+    <t>Sağlayıcı ID'Si</t>
+  </si>
+  <si>
+    <t>KategoriID'si</t>
+  </si>
+  <si>
+    <t>Kategorinin ismi</t>
+  </si>
+  <si>
+    <t>Adresi</t>
+  </si>
+  <si>
+    <t>Telefonun markası</t>
+  </si>
+  <si>
+    <t>Boyutu</t>
+  </si>
+  <si>
+    <t>inç cinsinden boyutu</t>
+  </si>
+  <si>
+    <t>Telefonların listelendiği tablo</t>
+  </si>
+  <si>
+    <t>Sağlayıcılar tablosu</t>
   </si>
 </sst>
 </file>
@@ -464,346 +516,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="J18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="I27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="5" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="H33" s="5"/>
+      <c r="I33" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>DataTypes!$A$1:$A$20</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>$A$1:$A$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>